--- a/orders.xlsx
+++ b/orders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hospital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food_ordering_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -213,9 +213,6 @@
     <t>b08d2bba-4dcf-4a8b-977b-e4e3c0bb7f9c</t>
   </si>
   <si>
-    <t>shakira</t>
-  </si>
-  <si>
     <t xml:space="preserve">3343, kayle, nairobi, nairobi, 3344
 </t>
   </si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>0a0f15aa-ac6b-4205-ae7f-6f579db4471b</t>
+  </si>
+  <si>
+    <t>Zack</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +994,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>23</v>
@@ -1006,18 +1006,18 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>44</v>
@@ -1029,18 +1029,18 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -1052,18 +1052,18 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>44</v>
@@ -1075,13 +1075,13 @@
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21">
         <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
